--- a/data/trans_camb/P19C09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Provincia-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.533118251506646</v>
+        <v>-3.653887750363758</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.103022390719584</v>
+        <v>-1.200547288145276</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1917835061276985</v>
+        <v>0.2742552147235264</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.2470608650104</v>
+        <v>-2.559783682220715</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.5628729513048953</v>
+        <v>-0.8986108170090412</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.5297887967249119</v>
+        <v>-0.9405389785805898</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.990714799362703</v>
+        <v>2.126723521557492</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.610759522383371</v>
+        <v>5.310102365408765</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.166342604893964</v>
+        <v>8.943795140392508</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.093689807224609</v>
+        <v>5.140649167064476</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.197371343700967</v>
+        <v>4.527834880893928</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.361492898666626</v>
+        <v>4.301626288153542</v>
       </c>
     </row>
     <row r="7">
@@ -716,19 +716,19 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4593445473135227</v>
+        <v>-0.4072361967662582</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.04740799312853782</v>
+        <v>-0.09258199587412796</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5333837448663197</v>
+        <v>-0.5576284413353071</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2339987835056306</v>
+        <v>-0.2671263880658771</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1934171481298644</v>
+        <v>-0.2692231970447367</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.066055177873299</v>
+        <v>3.054191798712216</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.714448940558439</v>
+        <v>5.905291090264287</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.998477895593658</v>
+        <v>5.523051080939889</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.339933341057665</v>
+        <v>3.580383659889872</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.509351228065063</v>
+        <v>2.458713950507477</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.095876846656707</v>
+        <v>2.525247175608875</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.513928375605373</v>
+        <v>-4.571866403250292</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.154032523384007</v>
+        <v>-3.352156464281026</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.27791939340766</v>
+        <v>-3.284131677903152</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.021637770761062</v>
+        <v>-4.043188481320241</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.429087946680259</v>
+        <v>-3.199252242220059</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.008945808079672</v>
+        <v>-3.054853706007159</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.1460560670803772</v>
+        <v>-0.1155609620541668</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.685188948412652</v>
+        <v>1.960761822019268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.412590705158921</v>
+        <v>1.394422166213992</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1410602886349896</v>
+        <v>-0.01394593773391489</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.0680041766299863</v>
+        <v>-0.06972205725603352</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.286442934848986</v>
+        <v>0.2523592172984799</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8898074473497861</v>
+        <v>-0.9103185844734814</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7056069777252612</v>
+        <v>-0.7119735834828154</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7472468369438258</v>
+        <v>-0.7589921474211571</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8781295999102418</v>
+        <v>-0.884857577228418</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7407941551543628</v>
+        <v>-0.7352947004837923</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7128528444517799</v>
+        <v>-0.7091072368556567</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.160570930374603</v>
+        <v>0.07549155383054451</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8630642146985438</v>
+        <v>0.9918389427210039</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7189235554224992</v>
+        <v>0.755767240871958</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2045589082033815</v>
+        <v>0.07587978550054995</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.001086392242058492</v>
+        <v>0.0199375410731187</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1649022078362319</v>
+        <v>0.1312292442036481</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.864527687216084</v>
+        <v>-3.058276711605447</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.121516846224238</v>
+        <v>-3.179114772791435</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.144031095558118</v>
+        <v>-3.858732642247039</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.559687526525069</v>
+        <v>-5.386976520344264</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.849091856387005</v>
+        <v>-2.638149419330272</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.65301801496649</v>
+        <v>-3.786231272885668</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.306454439671121</v>
+        <v>1.309991511374456</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8130465939816247</v>
+        <v>0.9497712199426492</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.901115728097434</v>
+        <v>1.957097742592679</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04172372744839153</v>
+        <v>0.2230224219814671</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.029449994176693</v>
+        <v>1.026427400286937</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.1407272775009755</v>
+        <v>-0.2016180291048763</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,20 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8898150654109974</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8737165032733818</v>
+      </c>
+      <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.7206180977236379</v>
+        <v>-0.7044915476403047</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.9416852111941928</v>
+        <v>-0.9353894263900957</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7011422015800846</v>
+        <v>-0.6525622090482089</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8610285816512252</v>
+        <v>-0.8685790019452518</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1057,20 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.068199673754479</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>1.739014181509643</v>
-      </c>
+        <v>2.755947405492014</v>
+      </c>
+      <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>0.8914695531948184</v>
+        <v>0.995635441827284</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2677718541177287</v>
+        <v>0.6604894360032855</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5045703776257123</v>
+        <v>0.6089528424406155</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.111201436252445</v>
+        <v>0.09584843756954319</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1111,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.766842461930489</v>
+        <v>-3.401156723147215</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3178734272656141</v>
+        <v>-0.4500986311997454</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.123573438686464</v>
+        <v>-2.267303154146731</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.094485803627462</v>
+        <v>-1.146826336086281</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.931714532699323</v>
+        <v>-1.852019430557844</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2363854190308366</v>
+        <v>0.47501323300241</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1137,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.021964024139893</v>
+        <v>2.981363700135215</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.195971303555475</v>
+        <v>6.931942612947414</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.842917216360357</v>
+        <v>3.722604347439725</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.26550204978389</v>
+        <v>5.220721576209141</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.27209494609938</v>
+        <v>2.451571170448819</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.344020466219859</v>
+        <v>5.106173102756257</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1189,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6836523186074579</v>
+        <v>-0.679363987900817</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1392778857426452</v>
+        <v>-0.1515589542521811</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5039968924467313</v>
+        <v>-0.5189130191771698</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.25887278711182</v>
+        <v>-0.2987022699542324</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4453867234352519</v>
+        <v>-0.432476013574923</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002849520186932782</v>
+        <v>0.08291763356398925</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1215,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.606397046957708</v>
+        <v>1.70628930921843</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4.110552559807784</v>
+        <v>3.547631975276027</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.965267359739052</v>
+        <v>1.734000527774926</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.541970137530939</v>
+        <v>2.804074499530346</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.00504650377665</v>
+        <v>1.044454384974599</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.271083972969796</v>
+        <v>2.147218394597608</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1271,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.464579445906077</v>
+        <v>-5.281660483153777</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.652995835697881</v>
+        <v>-3.807907961229759</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.899770323918034</v>
+        <v>-3.907469599729918</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.038596210541893</v>
+        <v>-1.955259392834415</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.434885839417397</v>
+        <v>-3.374008306232687</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.823412171444939</v>
+        <v>-1.584998463117483</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1297,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.700108629266967</v>
+        <v>1.791810550151846</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.385712325698969</v>
+        <v>5.012689047890032</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.108873695198471</v>
+        <v>3.228472562677711</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.052190201743194</v>
+        <v>6.468934421707476</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.556584840423414</v>
+        <v>1.717642868466747</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.31027332940994</v>
+        <v>4.483016863338805</v>
       </c>
     </row>
     <row r="31">
@@ -1356,17 +1352,19 @@
         <v>-1</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7620664834970807</v>
-      </c>
-      <c r="E32" s="6" t="inlineStr"/>
+        <v>-0.7964096260943846</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5141711204687043</v>
+        <v>-0.5565388684460889</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8107737576205694</v>
+        <v>-0.8105079505086523</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4558997605323513</v>
+        <v>-0.4203950759547855</v>
       </c>
     </row>
     <row r="33">
@@ -1377,20 +1375,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.6813090905272</v>
+        <v>1.357981607382533</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.373783728327719</v>
-      </c>
-      <c r="E33" s="6" t="inlineStr"/>
+        <v>3.160857511343119</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>3.851407493928525</v>
+      </c>
       <c r="F33" s="6" t="n">
-        <v>7.40408256115164</v>
+        <v>5.602560581027516</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7899104629584922</v>
+        <v>1.1071231830266</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.125277995889314</v>
+        <v>2.586738635785484</v>
       </c>
     </row>
     <row r="34">
@@ -1431,22 +1431,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.61759796489604</v>
+        <v>-3.424047529449068</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.368771852175646</v>
+        <v>-4.305733388974075</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.35361936090619</v>
+        <v>-2.461270068679688</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.474106701607615</v>
+        <v>-3.652160113299672</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.053522224702065</v>
+        <v>-2.063051069891358</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.90973513229929</v>
+        <v>-3.078558177712707</v>
       </c>
     </row>
     <row r="36">
@@ -1457,22 +1457,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.86039080160229</v>
+        <v>1.83227159033763</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.6732359192059933</v>
+        <v>0.6173953363379625</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.892171445806779</v>
+        <v>3.939340431170513</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.545190796977468</v>
+        <v>2.384721005825545</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.038926223498459</v>
+        <v>2.094585195853825</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.9321082020402396</v>
+        <v>0.9095128123193299</v>
       </c>
     </row>
     <row r="37">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8963090325059755</v>
+        <v>-0.8786868259991707</v>
       </c>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.6395957011062324</v>
+        <v>-0.7006171965830564</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.8389122473020871</v>
+        <v>-0.8636355736865358</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.620213510038965</v>
+        <v>-0.6049635657490949</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.8239182137540964</v>
+        <v>-0.8101726244668509</v>
       </c>
     </row>
     <row r="39">
@@ -1533,20 +1533,20 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.367984070953142</v>
+        <v>3.384640634449024</v>
       </c>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>3.696883574806484</v>
+        <v>3.853679153170201</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3.966795421587937</v>
+        <v>3.063686268554612</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.415843513489547</v>
+        <v>1.651373740677736</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.8878232479559037</v>
+        <v>0.8350783262167321</v>
       </c>
     </row>
     <row r="40">
@@ -1587,22 +1587,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.075585030328455</v>
+        <v>-1.791586463774273</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.04498369510917</v>
+        <v>-2.23057119180713</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.479592777923832</v>
+        <v>-4.500424313162687</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.868459359521571</v>
+        <v>-3.980808036397421</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.802805070926847</v>
+        <v>-2.570491321565456</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.428886618199673</v>
+        <v>-2.260672717341695</v>
       </c>
     </row>
     <row r="42">
@@ -1613,22 +1613,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.83434222072771</v>
+        <v>1.770610065527586</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.959906703567106</v>
+        <v>1.944673682327603</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.104702587110467</v>
+        <v>-0.195126973995945</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.052381970234788</v>
+        <v>0.9748938680290334</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.1917749696117645</v>
+        <v>0.3503865223262234</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.7492568263493715</v>
+        <v>0.7668080648569546</v>
       </c>
     </row>
     <row r="43">
@@ -1665,22 +1665,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5915056113849265</v>
+        <v>-0.5690952118807872</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6377763149331257</v>
+        <v>-0.7034544116494572</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7476733371293038</v>
+        <v>-0.7614358667554084</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.6975178047859482</v>
+        <v>-0.6763273795264618</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6325518247041141</v>
+        <v>-0.6054796862926621</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.5586917791867101</v>
+        <v>-0.5494687316002765</v>
       </c>
     </row>
     <row r="45">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.457983968970959</v>
+        <v>1.307517127487504</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.5005369166756</v>
+        <v>1.40366191424606</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.008164691813993628</v>
+        <v>-0.01672810735378944</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3474430272644439</v>
+        <v>0.3535139891465185</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.09177533303579107</v>
+        <v>0.1510403656852538</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2957962348435732</v>
+        <v>0.287591174353737</v>
       </c>
     </row>
     <row r="46">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.946354106079495</v>
+        <v>-2.702797029922329</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.862460177109386</v>
+        <v>-1.755576267731755</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.961970637461271</v>
+        <v>-2.040486327813734</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.772508105831134</v>
+        <v>-1.741595279465767</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.999319436688944</v>
+        <v>-1.936720196727342</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.219514792121241</v>
+        <v>-1.237579878761186</v>
       </c>
     </row>
     <row r="48">
@@ -1773,22 +1773,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.07559006310312695</v>
+        <v>0.2064210297883153</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.431049765252847</v>
+        <v>1.486084788656233</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.8008703000778893</v>
+        <v>0.682677724611131</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.237951865151542</v>
+        <v>1.411907838978009</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.04367180614248047</v>
+        <v>0.02220603348792184</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.001160910609237</v>
+        <v>0.9531999195620887</v>
       </c>
     </row>
     <row r="49">
@@ -1825,22 +1825,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.916262207878483</v>
+        <v>-0.9155455217985257</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6081654967774963</v>
+        <v>-0.6048402895133012</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.7764833029175968</v>
+        <v>-0.7886511009216259</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.7164911409518527</v>
+        <v>-0.69435223101198</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.7501958867447592</v>
+        <v>-0.7505410030529963</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.4972727205097003</v>
+        <v>-0.4959400521161046</v>
       </c>
     </row>
     <row r="51">
@@ -1851,22 +1851,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4125072446369875</v>
+        <v>0.4706630206659327</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.169101605149071</v>
+        <v>1.182164269288904</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.02355351622516</v>
+        <v>0.8378220812343181</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.442377198174193</v>
+        <v>1.756977029877771</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.06067450709562842</v>
+        <v>0.1640652068867518</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.7702646344432581</v>
+        <v>0.7557233665181448</v>
       </c>
     </row>
     <row r="52">
@@ -1907,22 +1907,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.795296651592124</v>
+        <v>-1.836996317624155</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.6603390792382192</v>
+        <v>-0.6416008488794585</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.320923619117464</v>
+        <v>-1.205589429702413</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.461834868095896</v>
+        <v>-1.337233048016684</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.277647933589086</v>
+        <v>-1.26095611114391</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.7208020716653333</v>
+        <v>-0.7893457282470824</v>
       </c>
     </row>
     <row r="54">
@@ -1933,22 +1933,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.1804111760016158</v>
+        <v>-0.1806884462166459</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.17281788815643</v>
+        <v>1.150500435442444</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.572573318605114</v>
+        <v>0.6612588107104418</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.4310830083419754</v>
+        <v>0.5493547264536748</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.07623545361004452</v>
+        <v>0.00388283509273588</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>0.5591762130592201</v>
+        <v>0.5094279176761278</v>
       </c>
     </row>
     <row r="55">
@@ -1985,22 +1985,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.5710143387873463</v>
+        <v>-0.5765913178918565</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2163273399181227</v>
+        <v>-0.2043851311927093</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.3668562575518067</v>
+        <v>-0.3359836605698645</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.3850838265228698</v>
+        <v>-0.3801344172100516</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3921049889152538</v>
+        <v>-0.3827190968505559</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.2278974433919812</v>
+        <v>-0.2448181451480345</v>
       </c>
     </row>
     <row r="57">
@@ -2011,22 +2011,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.05587185342359242</v>
+        <v>-0.07011081726842758</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.5627085443691398</v>
+        <v>0.5194663129279942</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.2191597637055548</v>
+        <v>0.247476023117888</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1645226853789836</v>
+        <v>0.2099801294657819</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.02218162621164547</v>
+        <v>0.002405770384741044</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.2084077993527829</v>
+        <v>0.1943092303730838</v>
       </c>
     </row>
     <row r="58">
